--- a/Tables/aq_hmf_metrics_outlet_min_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_30_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04205402845873223</v>
+        <v>0.1081854431977361</v>
       </c>
       <c r="C2" t="n">
-        <v>37.6551724137931</v>
+        <v>36.13793103448276</v>
       </c>
       <c r="D2" t="n">
-        <v>3.711810307677448</v>
+        <v>2.783916704559886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00764798062673548</v>
+        <v>0.007283163134465043</v>
       </c>
       <c r="F2" t="n">
         <v>26.667</v>
@@ -571,22 +571,22 @@
         <v>0.0021162878474976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01434009007109239</v>
+        <v>0.0181710660927168</v>
       </c>
       <c r="K2" t="n">
         <v>0.009777405546610036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002343476852721443</v>
+        <v>0.01454959657537034</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.008433489824097883</v>
       </c>
       <c r="N2" t="n">
-        <v>4.641153811217254e-05</v>
+        <v>0.005820274457370948</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003860650338675227</v>
+        <v>0.004672347649431882</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>1.695652173913043</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6923076923077</v>
+        <v>142.6296296296296</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0308757833935488</v>
+        <v>0.02838929003576489</v>
       </c>
       <c r="J13" t="n">
         <v>0.0363910636963584</v>
@@ -1336,10 +1336,10 @@
         <v>0.01524705880416768</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0220252963550256</v>
+        <v>0.02058213870057903</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03835340792669324</v>
+        <v>0.03052949885469637</v>
       </c>
       <c r="N13" t="n">
         <v>0.0108138639143808</v>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02115651737855578</v>
+        <v>0.06975102517656231</v>
       </c>
       <c r="C15" t="n">
         <v>36.16666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>2.394986127706716</v>
+        <v>2.89003589003589</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001353949123001838</v>
+        <v>0.01251380272179489</v>
       </c>
       <c r="F15" t="n">
-        <v>96.667</v>
+        <v>73.333</v>
       </c>
       <c r="G15" t="n">
         <v>3.068965517241379</v>
@@ -1465,40 +1465,40 @@
         <v>152.7241379310345</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003212843007322368</v>
+        <v>0.0112140537715872</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0036285045422688</v>
+        <v>0.0251732235578544</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00443301366196864</v>
+        <v>0.021002321954754</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003629118426609157</v>
+        <v>0.01457970827440098</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001561490863335529</v>
+        <v>0.006221292103296</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002272005185205346</v>
+        <v>0.0143722721255232</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001219128594691392</v>
+        <v>0.002886959144563201</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00086527221818688</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003221161364179584</v>
+        <v>0.0200700747309888</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002882733241346967</v>
+        <v>0.0133705353602016</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002610822317910912</v>
+        <v>0.0149485765875264</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002717700599955142</v>
+        <v>0.01939689576250822</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.001641317400777</v>
+        <v>0.06543968532399493</v>
       </c>
       <c r="C22" t="n">
-        <v>60.88888888888889</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D22" t="n">
-        <v>33.6287037037037</v>
+        <v>8.722084195997239</v>
       </c>
       <c r="E22" t="n">
-        <v>1.074511161406133</v>
+        <v>0.01537731815864548</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>2.666666666666667</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="H22" t="n">
-        <v>209.0555555555555</v>
+        <v>186.9130434782609</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4124844818442399</v>
+        <v>0.00076333157042688</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4400655435021854</v>
+        <v>0.00323029524621888</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5762930940764152</v>
+        <v>0.008602509131372161</v>
       </c>
       <c r="L22" t="n">
-        <v>0.78639336792197</v>
+        <v>0.01798278899777892</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6119733587335551</v>
+        <v>0.03295057355581979</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5527548131619984</v>
+        <v>0.022265794731221</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03247829037633533</v>
+        <v>0.00097006720408416</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07590500632209533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_min_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_30_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,11 +543,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1081854431977361</v>
+        <v>0.1102983747984199</v>
       </c>
       <c r="C2" t="n">
         <v>36.13793103448276</v>
@@ -562,22 +562,22 @@
         <v>26.667</v>
       </c>
       <c r="G2" t="n">
-        <v>1.692307692307692</v>
+        <v>2.125</v>
       </c>
       <c r="H2" t="n">
         <v>175.625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0021162878474976</v>
+        <v>0.03241712598768001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0181710660927168</v>
+        <v>0.09007475636073602</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009777405546610036</v>
+        <v>0.025001672010624</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01454959657537034</v>
+        <v>0.028074454393104</v>
       </c>
       <c r="M2" t="n">
         <v>0.008433489824097883</v>
@@ -586,22 +586,22 @@
         <v>0.005820274457370948</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004672347649431882</v>
+        <v>0.013104470269548</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.007276523437108801</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0106460987340672</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.0204778373220288</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.011254247512704</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.00443931132865248</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00510980894918592</v>
+        <v>0.0008209080560443191</v>
       </c>
       <c r="C3" t="n">
-        <v>38.42857142857143</v>
+        <v>35.82758620689656</v>
       </c>
       <c r="D3" t="n">
-        <v>4.441778063206634</v>
+        <v>4.477263732436146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001098869967644829</v>
+        <v>0.0001941704036865047</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>26.667</v>
       </c>
       <c r="G3" t="n">
-        <v>3.090909090909091</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="H3" t="n">
-        <v>142.9444444444445</v>
+        <v>135.5769230769231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00128873366898192</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006772936637174401</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00063937174275072</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003883938679656</v>
+        <v>1.046155703572225e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00111400739872128</v>
+        <v>4.797734646176641e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006978856745649601</v>
+        <v>5.635686770763841e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008024767791667201</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00092131044855552</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00036209318084352</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00045750962714688</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000836239521704832</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00101777542723584</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01902584366684629</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C4" t="n">
-        <v>36.43333333333333</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>2.741675138586904</v>
+        <v>16.51114718614719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002675438616956748</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>73.333</v>
       </c>
       <c r="G4" t="n">
-        <v>2.125</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H4" t="n">
-        <v>108.2068965517241</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006273040088688912</v>
+        <v>0.003817147167243625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006886319730566046</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003867590312345232</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001715731923724507</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000296891942536224</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.004006675219559021</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.001574476217243119</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002827360564256793</v>
+        <v>0.008220885287453761</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2557675385441499</v>
+        <v>0.09592335555288614</v>
       </c>
       <c r="C5" t="n">
-        <v>36.48275862068966</v>
+        <v>36.5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.125435350514722</v>
+        <v>4.570616883116883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02082349400225166</v>
+        <v>0.01093351001233901</v>
       </c>
       <c r="F5" t="n">
-        <v>76.667</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>2.285714285714286</v>
+        <v>2.125</v>
       </c>
       <c r="H5" t="n">
-        <v>199.2068965517241</v>
+        <v>120.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.04655844914854464</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005186740158028801</v>
+        <v>0.04091270001272364</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0633453360000768</v>
+        <v>0.01705524531550135</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1109371451724687</v>
+        <v>0.006969729136880935</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06161115462531339</v>
+        <v>0.001977811671580416</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0584150493859128</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05773918289126399</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0231550899912</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0288267763735728</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01138636259220096</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.00722473758804672</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,47 +819,47 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.88151853570632</v>
+        <v>0.105600724777175</v>
       </c>
       <c r="C6" t="n">
-        <v>54.6</v>
+        <v>36.43333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>20.76083333333333</v>
+        <v>2.591268405232364</v>
       </c>
       <c r="E6" t="n">
-        <v>1.033732400711008</v>
+        <v>0.02082349400225166</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>76.667</v>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>144.6</v>
+        <v>188.6</v>
       </c>
       <c r="I6" t="n">
-        <v>0.379871629812864</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.579471418126944</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3976352510516248</v>
+        <v>0.01098324222142819</v>
       </c>
       <c r="L6" t="n">
-        <v>0.642776560385904</v>
+        <v>0.0364050441280512</v>
       </c>
       <c r="M6" t="n">
-        <v>0.455644113292872</v>
+        <v>0.02465658835500672</v>
       </c>
       <c r="N6" t="n">
-        <v>0.257379747464448</v>
+        <v>0.0001467945327744</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.0108627954253056</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.01058699963645673</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.00273527146069632</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09133882039296</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.167274901036649</v>
+        <v>0.01351877971552192</v>
       </c>
       <c r="C7" t="n">
-        <v>36.36666666666667</v>
+        <v>35.9</v>
       </c>
       <c r="D7" t="n">
-        <v>3.508995141568671</v>
+        <v>2.839880029888947</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01881899321553535</v>
+        <v>0.001140215795613426</v>
       </c>
       <c r="F7" t="n">
-        <v>76.667</v>
+        <v>73.333</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4.772727272727272</v>
       </c>
       <c r="H7" t="n">
-        <v>145.3103448275862</v>
+        <v>207.2222222222222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01433326283764704</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02294258742946925</v>
+        <v>5.469843899808e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02223154267357363</v>
+        <v>0.0008588528699679361</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02173386260602928</v>
+        <v>0.00187217397632832</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04718336073890703</v>
+        <v>0.003796654650468342</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0166244808367008</v>
+        <v>0.002339322736173279</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01263452388337429</v>
+        <v>0.0012824133488208</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.0008045155921219201</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01506307632309032</v>
+        <v>0.0006636336169176</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01537339106873707</v>
+        <v>0.000998692137975168</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007092826389845198</v>
+        <v>0.001502075056614048</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0202025975730768</v>
+        <v>0.000132329154857256</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,47 +957,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1133971455178599</v>
+        <v>0.01185779545836553</v>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D8" t="n">
-        <v>7.143346560846561</v>
+        <v>11.30449134199134</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02306013988290751</v>
+        <v>0.003117215252619152</v>
       </c>
       <c r="F8" t="n">
-        <v>76.667</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>150.7586206896552</v>
+        <v>139.1363636363636</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01667125360449656</v>
+        <v>0.00415812989623104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02942985724572096</v>
+        <v>0.004695048375393024</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03077009132995123</v>
+        <v>0.003069259604952408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0411514006877568</v>
+        <v>0.002807238421379565</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007591723919982721</v>
+        <v>0.002955847721729472</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.001800312615700704</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00713910744392832</v>
+        <v>0.002356449819555384</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2655594650407104</v>
+        <v>0.167274901036649</v>
       </c>
       <c r="C9" t="n">
-        <v>40.5925925925926</v>
+        <v>36.36666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>6.557579663135219</v>
+        <v>3.806730355513317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04347493458502215</v>
+        <v>0.01881899321553535</v>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>4.130434782608695</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>171.5</v>
+        <v>145.3103448275862</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04907015020575359</v>
+        <v>0.03645752317351782</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0237946947411456</v>
+        <v>0.02294258742946925</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06255893671735681</v>
+        <v>0.0251033942141388</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03990120058362816</v>
+        <v>0.02173386260602928</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02418722224636653</v>
+        <v>0.04718336073890703</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1026990861793344</v>
+        <v>0.0166244808367008</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1509467209871616</v>
+        <v>0.01717985348569728</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04285421726793966</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01794155400575987</v>
+        <v>0.0319382962022016</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0307324839686976</v>
+        <v>0.01537339106873707</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0669260740673952</v>
+        <v>0.007092826389845198</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0738580381150752</v>
+        <v>0.02662541442185367</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1256617064023835</v>
+        <v>0.02213657639717077</v>
       </c>
       <c r="C10" t="n">
-        <v>38.25925925925926</v>
+        <v>36.2</v>
       </c>
       <c r="D10" t="n">
-        <v>5.044652236652237</v>
+        <v>2.469962972757091</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02286223848609629</v>
+        <v>0.001561760701685047</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>76.667</v>
       </c>
       <c r="G10" t="n">
-        <v>1.714285714285714</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>158.32</v>
+        <v>140.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0371543078890872</v>
+        <v>0.003598412021522654</v>
       </c>
       <c r="J10" t="n">
-        <v>0.036935645199642</v>
+        <v>0.003954943399040271</v>
       </c>
       <c r="K10" t="n">
-        <v>0.038510264133792</v>
+        <v>0.00433233387190254</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05169418403161416</v>
+        <v>0.004122807024893708</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008995079653305963</v>
+        <v>0.002628285770278676</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005979736456953824</v>
+        <v>0.0008141096020534203</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01972551534156</v>
+        <v>0.0008418204323675321</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0115478365782528</v>
+        <v>0.0007950283158370554</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03193759718061692</v>
+        <v>0.001114194969513158</v>
       </c>
       <c r="R10" t="n">
-        <v>0.050277127475232</v>
+        <v>0.003252472638020363</v>
       </c>
       <c r="S10" t="n">
-        <v>0.028624933891008</v>
+        <v>0.002694718247729618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005905380948477677</v>
+        <v>0.002869754072529563</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01351877971552192</v>
+        <v>0.3437301634236602</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9</v>
+        <v>43.48</v>
       </c>
       <c r="D11" t="n">
-        <v>2.839880029888947</v>
+        <v>9.450301587301587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001140215795613426</v>
+        <v>0.07042655210741544</v>
       </c>
       <c r="F11" t="n">
-        <v>73.333</v>
+        <v>76.667</v>
       </c>
       <c r="G11" t="n">
-        <v>4.772727272727272</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>207.2222222222222</v>
+        <v>182.52</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.06197991383808</v>
       </c>
       <c r="J11" t="n">
-        <v>5.469843899808e-05</v>
+        <v>0.113330816136384</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008588528699679361</v>
+        <v>0.09314150744159445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00187217397632832</v>
+        <v>0.08888439541684226</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003796654650468342</v>
+        <v>0.1199579016914846</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002339322736173279</v>
+        <v>0.05377852659269357</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0012824133488208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0008045155921219201</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0006636336169176</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.000998692137975168</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001502075056614048</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.000132329154857256</v>
+        <v>0.060919731101376</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000494416672331456</v>
+        <v>0.005545320755409504</v>
       </c>
       <c r="C12" t="n">
-        <v>36.36666666666667</v>
+        <v>37.55172413793103</v>
       </c>
       <c r="D12" t="n">
-        <v>2.857500647500648</v>
+        <v>4.756992337164752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001062184230387616</v>
+        <v>0.0006601013851542263</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>1.869565217391304</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="H12" t="n">
-        <v>198.6923076923077</v>
+        <v>168.8888888888889</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0009090863085941279</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.001040109166865088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.001013771939978356</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.000988987388308416</v>
       </c>
       <c r="M12" t="n">
-        <v>3.13650985027968e-05</v>
+        <v>0.001862486216769528</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001115826647204381</v>
+        <v>0.0007230965234891694</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001868995519208418</v>
+        <v>0.0001893461274670819</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.0009572401580060161</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.00042646869990396</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.003408491790741161</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.0009049067420359681</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.000525035112223104</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1162697064247256</v>
+        <v>0.04362620595183803</v>
       </c>
       <c r="C13" t="n">
-        <v>35.36666666666667</v>
+        <v>38.25925925925926</v>
       </c>
       <c r="D13" t="n">
-        <v>2.494741655031129</v>
+        <v>6.713975736197959</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01402110193277883</v>
+        <v>0.02007686778690107</v>
       </c>
       <c r="F13" t="n">
-        <v>76.667</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>1.695652173913043</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6296296296296</v>
+        <v>158.32</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02838929003576489</v>
+        <v>0.005749452533664</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0363910636963584</v>
+        <v>0.0064803669781032</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01524705880416768</v>
+        <v>0.02536364868787008</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02058213870057903</v>
+        <v>0.0154348334773416</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03052949885469637</v>
+        <v>0.0020306577033792</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0108138639143808</v>
+        <v>0.0071894369980224</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.01168973795993472</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0196052253772032</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.0116487578195352</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01221819827792256</v>
+        <v>0.0215420976846432</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0085385486563776</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0203038586165184</v>
+        <v>0.008379521245872001</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1162697064247256</v>
+        <v>0.002158572828188448</v>
       </c>
       <c r="C14" t="n">
-        <v>35.36666666666667</v>
+        <v>35.9</v>
       </c>
       <c r="D14" t="n">
-        <v>1.973371019328225</v>
+        <v>2.839880029888947</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01118317648090048</v>
+        <v>0.0006777432219740617</v>
       </c>
       <c r="F14" t="n">
-        <v>86.667</v>
+        <v>73.333</v>
       </c>
       <c r="G14" t="n">
-        <v>3.566666666666667</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="H14" t="n">
-        <v>145.3103448275862</v>
+        <v>189.3666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0303487994573561</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04190139842145667</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01524705880416768</v>
+        <v>0.000150918760123776</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0220252963550256</v>
+        <v>0.0002635940493518976</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03835340792669324</v>
+        <v>0.001121702461332192</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0165388506925824</v>
+        <v>0.000863070300195264</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001865513854008</v>
+        <v>0.0007372755408594241</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.0006139974922354829</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.009050105361500509</v>
+        <v>0.0005560250691421441</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01221819827792256</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0085385486563776</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0203038586165184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06975102517656231</v>
+        <v>0.01039146546929425</v>
       </c>
       <c r="C15" t="n">
-        <v>36.16666666666666</v>
+        <v>36.5</v>
       </c>
       <c r="D15" t="n">
-        <v>2.89003589003589</v>
+        <v>4.867572381322381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01251380272179489</v>
+        <v>0.001916895207060676</v>
       </c>
       <c r="F15" t="n">
-        <v>73.333</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>3.068965517241379</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>152.7241379310345</v>
+        <v>209.7</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0112140537715872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0251732235578544</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.021002321954754</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01457970827440098</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006221292103296</v>
+        <v>0.003007907765434703</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0143722721255232</v>
+        <v>0.001669776392956251</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002886959144563201</v>
+        <v>0.0044940534564996</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0200700747309888</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0133705353602016</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0149485765875264</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01939689576250822</v>
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,50 +1509,50 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2820384059987631</v>
+        <v>0.1454108583821376</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>29.17820512820513</v>
+        <v>4.680962185962186</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2307587314607529</v>
+        <v>0.02614823784988171</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>66.667</v>
       </c>
       <c r="G16" t="n">
-        <v>1.769230769230769</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>246.7307692307692</v>
+        <v>142.6296296296296</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.02838929003576489</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.03933441058208217</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.04140635961310182</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01813891109982336</v>
+        <v>0.02058213870057903</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09918111442513679</v>
+        <v>0.03052949885469637</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1704401961137004</v>
+        <v>0.01454570714757872</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0546320319475392</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.030337536773376</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.01073601832881862</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.03929344243470043</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9433226382558336</v>
+        <v>0.01022437132281645</v>
       </c>
       <c r="C17" t="n">
-        <v>42.07692307692308</v>
+        <v>35.36666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>23.3188775510204</v>
+        <v>1.912735782306216</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3335235180747781</v>
+        <v>0.000535950124361808</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>76.667</v>
       </c>
       <c r="G17" t="n">
-        <v>2.038461538461538</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>203.6428571428571</v>
+        <v>144.1071428571429</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.001322950775550047</v>
       </c>
       <c r="J17" t="n">
-        <v>0.179578645094016</v>
+        <v>0.001496509550315896</v>
       </c>
       <c r="K17" t="n">
-        <v>0.133216038492768</v>
+        <v>0.001731665924106908</v>
       </c>
       <c r="L17" t="n">
-        <v>0.25217203665888</v>
+        <v>0.001524773161244288</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2132657662061533</v>
+        <v>0.001358322787344971</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2847391345501737</v>
+        <v>0.0007326148144438361</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0354386467872864</v>
+        <v>0.0006194225576349563</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.0004553933392993818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.0005685156528308806</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.001053244334299618</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001957260436992</v>
+        <v>0.001795655225524497</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8113904694068544</v>
+        <v>0.06953259041234464</v>
       </c>
       <c r="C18" t="n">
-        <v>36.36666666666667</v>
+        <v>36.3</v>
       </c>
       <c r="D18" t="n">
-        <v>3.204828751829525</v>
+        <v>2.287630861284112</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07315305120091918</v>
+        <v>0.004461265724115871</v>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>73.333</v>
       </c>
       <c r="G18" t="n">
-        <v>4.206896551724138</v>
+        <v>4.090909090909091</v>
       </c>
       <c r="H18" t="n">
-        <v>88.63333333333334</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.125763769378921</v>
+        <v>0.005985149505349883</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1065038818470022</v>
+        <v>0.008880530986231013</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09978691989277964</v>
+        <v>0.01498765797255632</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03179109048025977</v>
+        <v>0.005341156714620321</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009541644630336001</v>
+        <v>0.008676873377618103</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01406780939088</v>
+        <v>0.01172370772040366</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.005496375880836755</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.01212997476372514</v>
       </c>
       <c r="R18" t="n">
-        <v>0.007095069084096</v>
+        <v>0.007293622281759736</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08755245347616</v>
+        <v>0.007505824652554223</v>
       </c>
       <c r="T18" t="n">
-        <v>0.143683886722752</v>
+        <v>0.0122435081019484</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.271478139049656</v>
+        <v>0.07234378907977088</v>
       </c>
       <c r="C19" t="n">
-        <v>36.26666666666667</v>
+        <v>36.46666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>3.319300201432554</v>
+        <v>4.273260541636222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04388362876367328</v>
+        <v>0.01134570871996011</v>
       </c>
       <c r="F19" t="n">
-        <v>73.333</v>
+        <v>90</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>5.037037037037037</v>
       </c>
       <c r="H19" t="n">
-        <v>160.9666666666667</v>
+        <v>209.6896551724138</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0383087857249692</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0719957281099968</v>
+        <v>0.003808339495277184</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0793249694249472</v>
+        <v>0.02068379449983046</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05095186725745819</v>
+        <v>0.006175379094668509</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0227985889830336</v>
+        <v>0.018726496993512</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01824166727276544</v>
+        <v>0.01608868079207424</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0262574642874297</v>
+        <v>0.01877257416629952</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.007524967358649602</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.018267764078592</v>
+        <v>0.01266819342303456</v>
       </c>
       <c r="R19" t="n">
-        <v>0.029638515188736</v>
+        <v>0.006357601312300801</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03806871549949441</v>
+        <v>0.00550479497904</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0356955372196416</v>
+        <v>0.01287339120920563</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,29 +1785,29 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.198894941549568</v>
+        <v>0.1142371735247287</v>
       </c>
       <c r="C20" t="n">
-        <v>51.90476190476191</v>
+        <v>36.1</v>
       </c>
       <c r="D20" t="n">
-        <v>34.44126984126984</v>
+        <v>23.79222222222222</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1364720227822224</v>
+        <v>0.07350537722434897</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>73.333</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.807692307692308</v>
       </c>
       <c r="H20" t="n">
-        <v>216.6190476190476</v>
+        <v>237</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1816,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009093105780192</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04711214838223244</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09366392560944808</v>
+        <v>0.06392983454843329</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08567499800341441</v>
+        <v>0.05308258507191108</v>
       </c>
       <c r="O20" t="n">
-        <v>0.072693875917656</v>
+        <v>0.01144467264271968</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0044935437532608</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001753379141472</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1854,29 +1854,29 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5947490169430993</v>
+        <v>0.01190495342443525</v>
       </c>
       <c r="C21" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D21" t="n">
-        <v>5.36431758056758</v>
+        <v>3.457179672179671</v>
       </c>
       <c r="E21" t="n">
-        <v>0.103369342575334</v>
+        <v>0.003587384772307744</v>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>2.444444444444445</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="H21" t="n">
-        <v>179.8333333333333</v>
+        <v>103.8965517241379</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1885,34 +1885,34 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1119012147996564</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1071341040077629</v>
+        <v>0.0009621566098179841</v>
       </c>
       <c r="M21" t="n">
-        <v>0.117145095373404</v>
+        <v>0.002730378309603849</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1285302024860476</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1127626669262009</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.011437740678672</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.118169598883392</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1031150040221947</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04633814084578519</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02935890655488</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,50 +1923,50 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06543968532399493</v>
+        <v>0.001342962956954924</v>
       </c>
       <c r="C22" t="n">
-        <v>42.07692307692308</v>
+        <v>36.43333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>8.722084195997239</v>
+        <v>4.022818284226953</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01537731815864548</v>
+        <v>0.001078459910688539</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>1.823529411764706</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="H22" t="n">
-        <v>186.9130434782609</v>
+        <v>93.23333333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00076333157042688</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00323029524621888</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008602509131372161</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01798278899777892</v>
+        <v>7.6053548408832e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03295057355581979</v>
+        <v>0.0006643981717758001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.022265794731221</v>
+        <v>0.0007278455877214163</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00097006720408416</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5881861202226498</v>
+        <v>0.02872263380782119</v>
       </c>
       <c r="C23" t="n">
         <v>36.26666666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>4.124142970319441</v>
+        <v>1.869919123390054</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09168146795835462</v>
+        <v>0.001450680966125303</v>
       </c>
       <c r="F23" t="n">
-        <v>73.333</v>
+        <v>93.333</v>
       </c>
       <c r="G23" t="n">
-        <v>5.28</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>140.8275862068965</v>
+        <v>135.6333333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1392741359414958</v>
+        <v>0.00291285206909424</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1602525010185959</v>
+        <v>0.002708065540622131</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1878351937269056</v>
+        <v>0.0044794176920712</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09547608158229939</v>
+        <v>0.00239117808565728</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0581613919283864</v>
+        <v>0.002546038252100603</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04129428069965711</v>
+        <v>0.003125826470394421</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06825358595878481</v>
+        <v>0.001993787809897355</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.0007542792409057839</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.018267764078592</v>
+        <v>0.002003011399706681</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05488484475398401</v>
+        <v>0.001349316995945684</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1091312497939966</v>
+        <v>0.002587901263087503</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1744701953534666</v>
+        <v>0.00348165823011776</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1166447706741967</v>
+        <v>0.05230140280762102</v>
       </c>
       <c r="C24" t="n">
-        <v>38.67857142857143</v>
+        <v>47.17391304347826</v>
       </c>
       <c r="D24" t="n">
-        <v>6.064965986394557</v>
+        <v>22.69151138716356</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02141368665435598</v>
+        <v>0.03382477563837499</v>
       </c>
       <c r="F24" t="n">
-        <v>53.333</v>
+        <v>63.333</v>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="H24" t="n">
-        <v>161.3333333333333</v>
+        <v>237.4736842105263</v>
       </c>
       <c r="I24" t="n">
-        <v>0.032967605485584</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03747708904922182</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02864717548688291</v>
+        <v>0.0044283017386944</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005888091814617601</v>
+        <v>0.009957562473196801</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0002935890655488</v>
+        <v>0.01863349575640172</v>
       </c>
       <c r="N24" t="n">
-        <v>0.014597900759232</v>
+        <v>0.02136924180365885</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00642226080888</v>
+        <v>0.01455834778790112</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0210816966500323</v>
+        <v>0.0039634523849088</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02061093103174417</v>
+        <v>4.89315109248e-05</v>
       </c>
       <c r="R24" t="n">
-        <v>0.027191939642496</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01136393564969342</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01361886277814479</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1328718868659302</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C25" t="n">
-        <v>34.93333333333333</v>
+        <v>54.6</v>
       </c>
       <c r="D25" t="n">
-        <v>3.093048474430054</v>
+        <v>20.76083333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01147447154426551</v>
+        <v>1.033732400711008</v>
       </c>
       <c r="F25" t="n">
-        <v>90</v>
+        <v>66.667</v>
       </c>
       <c r="G25" t="n">
-        <v>6.703703703703703</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>147.1724137931035</v>
+        <v>144.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0226842860091008</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0361988327605824</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02396367561117162</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0179017971531336</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0189823680193896</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N25" t="n">
-        <v>0.009351355421184001</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0277930982052864</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.006902838148320001</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0250559918129304</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004199954687712001</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.007801697668333553</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03155348481985728</v>
+        <v>0.459252812223576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.88151853570632</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90.91666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>52.56944444444444</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.230578228445636</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>180.1666666666667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.379871629812864</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.579471418126944</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3976352510516248</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.642776560385904</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.455644113292872</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.257379747464448</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.08523869203100161</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.09133882039296</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001737394847903232</v>
+      </c>
+      <c r="C27" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.029768102894278</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0001810379392041162</v>
+      </c>
+      <c r="F27" t="n">
+        <v>80</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>150</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0003380722572986182</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0004324566935533824</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0003291287945362864</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00022615532705556</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00026484180288048</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0002659239420643938</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0003818405406096</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0002815443859365416</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.00033354979947072</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9433226382558336</v>
+      </c>
+      <c r="C28" t="n">
+        <v>60.88888888888889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.3188775510204</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3335235180747781</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>203.6428571428571</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.05070527819582401</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2318925467114928</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3157061084868096</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3309727398953472</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2132657662061533</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2847391345501737</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.03247829037633533</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0429618665919744</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.09343155587319904</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.978233538840507</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005068533984799386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.615384615384615</v>
+      </c>
+      <c r="H29" t="n">
+        <v>140.8275862068965</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.009838260200449396</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01515407206047574</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01421119559082445</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01145988640559916</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01162658808112388</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.006922628057226006</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.005408054503617494</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.005256083099225083</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.01703180508295542</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1856304244630368</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37.55172413793103</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.20090895946159</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.03420150321888259</v>
+      </c>
+      <c r="F30" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>158.8275862068965</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.032967605485584</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.037218530497176</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05154934675927679</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.005888091814617601</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0002935890655488</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.008098165058054401</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0360299025442944</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0274995091397376</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0253395324432</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0363968888762304</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0144714943560096</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0174161227813056</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2869898357754075</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.508995141568671</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02634457869116221</v>
+      </c>
+      <c r="F31" t="n">
+        <v>76.667</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H31" t="n">
+        <v>147.28</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01433326283764704</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.04135058072046223</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02223154267357363</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.03098756131381747</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.05469866035491512</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03538864489956012</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01263452388337429</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.05800259752507564</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.01506307632309032</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.05413264270368889</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.05763550454753909</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0202025975730768</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.07140493836737856</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.950913477360845</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006659266978879322</v>
+      </c>
+      <c r="F32" t="n">
+        <v>90</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.703703703703703</v>
+      </c>
+      <c r="H32" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01293069544533312</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.02010989363444427</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01350854034379136</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01041429364448806</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01503157195797962</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00155602204740864</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.005098663438364161</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.749452533664e-05</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0093856754392632</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.00852317018151552</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.004790569674934081</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01370443467046464</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>3.373228689079502</v>
-      </c>
-      <c r="C26" t="n">
-        <v>37.62068965517241</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10.15907224958949</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9944239315966225</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="B33" t="n">
+        <v>0.282722192497584</v>
+      </c>
+      <c r="C33" t="n">
+        <v>36.43333333333333</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.102096052096052</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03088268673862808</v>
+      </c>
+      <c r="F33" t="n">
         <v>96.667</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>4.206896551724138</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>110.3103448275862</v>
       </c>
-      <c r="I26" t="n">
-        <v>1.335361321267344</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.80783594464896</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.609494395187232</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.4233554325213696</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="I33" t="n">
+        <v>0.071444536645664</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0601468356447229</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.036127765566144</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0323192629658304</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.009541644630336001</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.367230989490624</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="N33" t="n">
+        <v>0.023792947187184</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.007095069084096</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.488301527950272</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.309740856285772</v>
-      </c>
-      <c r="U26" t="inlineStr">
+      <c r="S33" t="n">
+        <v>0.05971312452516218</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.07753469747761921</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>min</t>
         </is>
